--- a/artfynd/A 1595-2019.xlsx
+++ b/artfynd/A 1595-2019.xlsx
@@ -802,61 +802,50 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76361837</v>
+        <v>82108936</v>
       </c>
       <c r="B3" t="n">
-        <v>90005</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Mulatorp NO, Bl</t>
+          <t>Hejsjön, 400 m N, Bl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>468469.4997154945</v>
+        <v>468735.7442380934</v>
       </c>
       <c r="R3" t="n">
-        <v>6253100.736670815</v>
+        <v>6253509.647243113</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -881,9 +870,14 @@
           <t>Kyrkhult</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>K-Olo-0393</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-03-11</t>
+          <t>2019-02-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -893,7 +887,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-03-11</t>
+          <t>2019-02-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -901,45 +895,48 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Flera bladrosetter.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ivar Björegren</t>
+          <t>Åke Widgren</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ivar Björegren</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Johannes Holswilder</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82085799</v>
+        <v>76361837</v>
       </c>
       <c r="B4" t="n">
-        <v>93054</v>
+        <v>90005</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,38 +949,45 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2810</v>
+        <v>1339</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Mulatorp, Bl</t>
+          <t>Mulatorp NO, Bl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468605.8449983025</v>
+        <v>468469.4997154945</v>
       </c>
       <c r="R4" t="n">
-        <v>6253178.254959048</v>
+        <v>6253100.736670815</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1010,7 +1014,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2019-03-11</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1020,7 +1024,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2019-03-11</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1038,9 +1042,14 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Vid källa i gammal barrskog</t>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1058,50 +1067,54 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82108936</v>
+        <v>82085799</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>93054</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>2810</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hejsjön, 400 m N, Bl</t>
+          <t>Mulatorp, Bl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>468735.7442380934</v>
+        <v>468605.8449983025</v>
       </c>
       <c r="R5" t="n">
-        <v>6253509.647243113</v>
+        <v>6253178.254959048</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1126,14 +1139,9 @@
           <t>Kyrkhult</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>K-Olo-0393</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-02-13</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1143,7 +1151,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-02-13</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1151,41 +1159,33 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Flera bladrosetter.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>Vid källa i gammal barrskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Åke Widgren</t>
+          <t>Ivar Björegren</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Johannes Holswilder</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Ivar Björegren</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">

--- a/artfynd/A 1595-2019.xlsx
+++ b/artfynd/A 1595-2019.xlsx
@@ -802,50 +802,61 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82108936</v>
+        <v>76361837</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>90005</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hejsjön, 400 m N, Bl</t>
+          <t>Mulatorp NO, Bl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>468735.7442380934</v>
+        <v>468469.4997154945</v>
       </c>
       <c r="R3" t="n">
-        <v>6253509.647243113</v>
+        <v>6253100.736670815</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -870,14 +881,9 @@
           <t>Kyrkhult</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>K-Olo-0393</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-02-13</t>
+          <t>2019-03-11</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -887,7 +893,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-02-13</t>
+          <t>2019-03-11</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -895,48 +901,45 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Flera bladrosetter.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Åke Widgren</t>
+          <t>Ivar Björegren</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Johannes Holswilder</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Ivar Björegren</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76361837</v>
+        <v>82085799</v>
       </c>
       <c r="B4" t="n">
-        <v>90005</v>
+        <v>93054</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -949,45 +952,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1339</v>
+        <v>2810</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Hedw.) Warnst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Mulatorp NO, Bl</t>
+          <t>Mulatorp, Bl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>468469.4997154945</v>
+        <v>468605.8449983025</v>
       </c>
       <c r="R4" t="n">
-        <v>6253100.736670815</v>
+        <v>6253178.254959048</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,7 +1010,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-03-11</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1024,7 +1020,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-03-11</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1042,14 +1038,9 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Vid källa i gammal barrskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1067,54 +1058,50 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82085799</v>
+        <v>82108936</v>
       </c>
       <c r="B5" t="n">
-        <v>93054</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2810</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Mulatorp, Bl</t>
+          <t>Hejsjön, 400 m N, Bl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>468605.8449983025</v>
+        <v>468735.7442380934</v>
       </c>
       <c r="R5" t="n">
-        <v>6253178.254959048</v>
+        <v>6253509.647243113</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1139,9 +1126,14 @@
           <t>Kyrkhult</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>K-Olo-0393</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2019-02-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1151,7 +1143,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2019-02-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1159,33 +1151,41 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Flera bladrosetter.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Vid källa i gammal barrskog</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ivar Björegren</t>
+          <t>Åke Widgren</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ivar Björegren</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Johannes Holswilder</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
